--- a/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 0,59</t>
+          <t>-7,15; 0,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,84; -11,58</t>
+          <t>-28,51; -11,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 0,59</t>
+          <t>-7,22; 0,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,02; -14,35</t>
+          <t>-33,08; -14,6</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,22</t>
+          <t>-9,27; -0,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,65; -2,27</t>
+          <t>-19,79; -1,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -0,22</t>
+          <t>-9,27; -0,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -3,07</t>
+          <t>-23,16; -1,83</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,51</t>
+          <t>-4,83; 0,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,94; -7,75</t>
+          <t>-21,36; -7,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,51</t>
+          <t>-4,85; 0,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -8,16</t>
+          <t>-22,05; -8,27</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,88</t>
+          <t>-6,84; 3,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 0,27</t>
+          <t>-31,13; 0,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,1</t>
+          <t>-7,01; 3,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 0,15</t>
+          <t>-33,92; 0,67</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,6</t>
+          <t>0,0; 7,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -4,78</t>
+          <t>-53,48; -5,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,41</t>
+          <t>0,0; 7,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -5,13</t>
+          <t>-57,83; -5,51</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,27</t>
+          <t>-4,62; 1,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 4,29</t>
+          <t>-8,25; 4,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,29</t>
+          <t>-4,62; 1,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 4,68</t>
+          <t>-8,87; 4,57</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,55</t>
+          <t>-4,35; -0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 8,32</t>
+          <t>-15,31; 7,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,56</t>
+          <t>-4,39; -0,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 10,36</t>
+          <t>-17,87; 9,53</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,13</t>
+          <t>-4,77; 0,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,66; -1,73</t>
+          <t>-30,65; 0,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,13</t>
+          <t>-4,83; 0,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,08; -6,34</t>
+          <t>-43,88; -0,99</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,44</t>
+          <t>-2,69; -0,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -1,3</t>
+          <t>-16,16; -1,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,44</t>
+          <t>-2,72; -0,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -1,63</t>
+          <t>-19,52; -2,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,59</t>
+          <t>-5,98; 1,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 0,59</t>
+          <t>-6,02; 1,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; -0,29</t>
+          <t>-9,22; -0,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; -0,26</t>
+          <t>-9,22; -0,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,52</t>
+          <t>-4,86; 0,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 0,52</t>
+          <t>-4,87; 0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 3,58</t>
+          <t>-6,57; 4,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 3,87</t>
+          <t>-6,86; 4,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,06</t>
+          <t>0,0; 8,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,6</t>
+          <t>0,0; 9,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,57</t>
+          <t>-4,62; 1,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,6</t>
+          <t>-4,62; 1,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,44</t>
+          <t>-4,33; -0,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,44</t>
+          <t>-4,39; -0,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 0,25</t>
+          <t>-4,74; 0,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 0,26</t>
+          <t>-4,79; 0,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; -0,38</t>
+          <t>-2,74; -0,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; -0,39</t>
+          <t>-2,78; -0,55</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">

--- a/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,15</t>
+          <t>-6,5; 0,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,51; -11,56</t>
+          <t>-29,84; -11,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,16</t>
+          <t>-6,54; 0,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,08; -14,6</t>
+          <t>-34,02; -14,35</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -0,25</t>
+          <t>-8,93; -0,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,79; -1,59</t>
+          <t>-19,65; -2,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -0,25</t>
+          <t>-9,08; -0,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,16; -1,83</t>
+          <t>-23,35; -3,07</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 0,75</t>
+          <t>-5,03; 0,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -7,89</t>
+          <t>-20,94; -7,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,76</t>
+          <t>-5,06; 0,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -8,27</t>
+          <t>-21,64; -8,16</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 4,1</t>
+          <t>-6,16; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 0,93</t>
+          <t>-33,21; 0,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,4</t>
+          <t>-6,38; 4,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,92; 0,67</t>
+          <t>-36,79; 0,15</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,45</t>
+          <t>0,0; 8,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-53,48; -5,18</t>
+          <t>-52,65; -4,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,22</t>
+          <t>0,0; 9,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-57,83; -5,51</t>
+          <t>-56,83; -5,13</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,68</t>
+          <t>-5,25; 1,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 4,18</t>
+          <t>-7,75; 4,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 1,72</t>
+          <t>-5,28; 1,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 4,57</t>
+          <t>-8,19; 4,68</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -0,36</t>
+          <t>-4,57; -0,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 7,82</t>
+          <t>-14,6; 8,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,37</t>
+          <t>-4,58; -0,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 9,53</t>
+          <t>-16,88; 10,36</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,41</t>
+          <t>-4,87; 0,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,65; 0,44</t>
+          <t>-31,66; -1,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,41</t>
+          <t>-4,9; 0,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,88; -0,99</t>
+          <t>-45,08; -6,34</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,53</t>
+          <t>-2,74; -0,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -1,56</t>
+          <t>-15,86; -1,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; -0,55</t>
+          <t>-2,77; -0,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,52; -2,12</t>
+          <t>-19,04; -1,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,14</t>
+          <t>-21,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,88%</t>
+          <t>-25,18%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,84; -11,58</t>
+          <t>-31,85; -11,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,02; -14,35</t>
+          <t>-36,95; -14,82</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,75</t>
+          <t>-10,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>-12,9%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,65; -2,27</t>
+          <t>-19,8; -1,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -3,07</t>
+          <t>-23,35; -2,38</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,84</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,4%</t>
+          <t>-14,42%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,94; -7,75</t>
+          <t>-20,98; -7,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,64; -8,16</t>
+          <t>-21,63; -8,15</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,2</t>
+          <t>-31,18</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,28%</t>
+          <t>-34,53%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 0,27</t>
+          <t>-68,73; 0,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,79; 0,15</t>
+          <t>-74,56; 0,01</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-27,37</t>
+          <t>-28,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-30,82%</t>
+          <t>-31,79%</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -4,78</t>
+          <t>-53,67; -5,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-56,83; -5,13</t>
+          <t>-58,25; -6,65</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 4,29</t>
+          <t>-7,83; 4,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 4,68</t>
+          <t>-8,16; 4,71</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,85%</t>
+          <t>-1,07%</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 8,32</t>
+          <t>-14,47; 12,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 10,36</t>
+          <t>-16,74; 15,55</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-21,25</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-33,54%</t>
+          <t>-4,15%</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,66; -1,73</t>
+          <t>-31,27; 26,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,08; -6,34</t>
+          <t>-43,77; 169,92</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-4,03</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>-5,41%</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -1,3</t>
+          <t>-17,95; 19,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -1,63</t>
+          <t>-22,03; 36,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P29A_R-Provincia-trans_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,11 +602,15 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-23,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-21,14</t>
+          <t>-22,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-24,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-25,18%</t>
+          <t>-26,45</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-45,7%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-39,64%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-41,5%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-45,79%</t>
         </is>
       </c>
     </row>
@@ -609,29 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 0,59</t>
+          <t>-30,82; -15,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,85; -11,78</t>
+          <t>-30,64; -12,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 0,59</t>
+          <t>-32,73; -16,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-36,95; -14,82</t>
+          <t>-34,49; -17,5</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-56,33; -31,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-51,49; -24,37</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-51,44; -29,28</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-54,57; -34,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-30,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,63</t>
+          <t>-33,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-33,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>-26,78</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-72,78%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-58,27%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-65,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-54,08%</t>
         </is>
       </c>
     </row>
@@ -669,29 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -0,22</t>
+          <t>-36,29; -25,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,8; -1,9</t>
+          <t>-39,12; -26,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; -0,22</t>
+          <t>-38,7; -27,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -2,38</t>
+          <t>-34,08; -20,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-79,87; -65,38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-65,14; -49,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-71,84; -57,48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-62,69; -45,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-34,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,86</t>
+          <t>-24,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,13%</t>
+          <t>-27,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>-32,84</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-57,98%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-43,39%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-44,02%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-56,04%</t>
         </is>
       </c>
     </row>
@@ -729,22 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,51</t>
+          <t>-41,13; -27,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,98; -7,79</t>
+          <t>-33,18; -17,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 0,51</t>
+          <t>-34,82; -20,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,63; -8,15</t>
+          <t>-40,02; -26,36</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-65,76; -48,4</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-53,96; -31,53</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-53,3; -34,44</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-64,32; -47,66</t>
         </is>
       </c>
     </row>
@@ -761,22 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-30,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-31,18</t>
+          <t>-28,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>-23,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,53%</t>
+          <t>-30,87</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-46,84%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-60,55%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-39,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-54,15%</t>
         </is>
       </c>
     </row>
@@ -789,22 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 3,88</t>
+          <t>-37,33; -23,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,73; 0,02</t>
+          <t>-35,12; -21,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 4,1</t>
+          <t>-30,82; -15,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-74,56; 0,01</t>
+          <t>-43,72; -20,94</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-54,79; -37,78</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-69,58; -49,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-49,56; -28,84</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-72,13; -39,91</t>
         </is>
       </c>
     </row>
@@ -821,22 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-24,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-28,21</t>
+          <t>-35,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>-24,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-31,79%</t>
+          <t>-13,31</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-57,11%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-62,23%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-58,61%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-76,39%</t>
         </is>
       </c>
     </row>
@@ -849,29 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,6</t>
+          <t>-33,05; -15,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-53,67; -5,85</t>
+          <t>-44,42; -26,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,41</t>
+          <t>-32,32; -15,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-58,25; -6,65</t>
+          <t>-18,72; -8,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-70,36; -39,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-72,92; -50,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-70,25; -41,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-87,01; -55,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -881,22 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>-31,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-35,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>-33,07</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,03%</t>
+          <t>-23,82</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-44,92%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-54,62%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-46,85%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-38,84%</t>
         </is>
       </c>
     </row>
@@ -909,29 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 1,27</t>
+          <t>-38,92; -23,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 4,26</t>
+          <t>-43,88; -27,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,29</t>
+          <t>-40,78; -24,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 4,71</t>
+          <t>-30,81; -16,38</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-53,48; -34,4</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-63,6; -44,77</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-54,97; -37,03</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-47,44; -28,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -941,22 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-25,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-29,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>-21,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,07%</t>
+          <t>-2,11</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-56,11%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-52,19%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-36,76%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-4,26%</t>
         </is>
       </c>
     </row>
@@ -969,22 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,55</t>
+          <t>-30,13; -19,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 12,55</t>
+          <t>-35,17; -23,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,56</t>
+          <t>-27,28; -15,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 15,55</t>
+          <t>-20,66; 26,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-63,32; -46,47</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-58,75; -44,21</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-45,09; -28,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-40,81; 56,27</t>
         </is>
       </c>
     </row>
@@ -1001,22 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-36,24</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-31,91</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-26,13</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-15,88</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-57,21%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-58,38%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-46,56%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-53,15%</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,13</t>
+          <t>-41,0; -31,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,27; 26,92</t>
+          <t>-36,96; -26,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 0,13</t>
+          <t>-31,12; -21,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,77; 169,92</t>
+          <t>-28,5; 2,34</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-62,45; -51,58</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-64,39; -51,63</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-53,35; -40,08</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-68,5; 14,61</t>
         </is>
       </c>
     </row>
@@ -1061,22 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-30,43</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>-30,45</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-26,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-17,61</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-55,38%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-54,26%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-46,2%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-38,49%</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,74; -0,44</t>
+          <t>-32,71; -28,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 19,81</t>
+          <t>-32,76; -27,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,44</t>
+          <t>-28,68; -23,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,03; 36,07</t>
+          <t>-24,43; -1,38</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-58,35; -52,46</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-57,11; -50,79</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-49,13; -42,69</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-50,25; -2,74</t>
         </is>
       </c>
     </row>
@@ -1118,15 +1517,15 @@
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
